--- a/datas/test_code_已处理.xlsx
+++ b/datas/test_code_已处理.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6334,4 +6335,693 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>收款方支付宝账号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>收款方姓名</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>15868873427</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>卢玉莹</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>19198259039</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>姚依潇</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>17888386390</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>张彤</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>18621517675</v>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>赵恺宇</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>17824577220</v>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>刘咏琪</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>18392610160</v>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>白清馨</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>15036944892</v>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>杨一婷</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>15097333687</v>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>赵义滕</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>17816309982</v>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>崔洁</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>19550191957</v>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>金烑烗</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>1767318680@qq.com</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>孟诗雨</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>13319671666</v>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>刘怡婷</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>18651441341</v>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>向皓元</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>13569350358</v>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>郭汝霖</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>15638228256</v>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>耿秀娟</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>1399102432@qq.com</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>何婵</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>18638833402</v>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>岳梦娟</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>15112906263</v>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>钟小迅</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>18646610611</v>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>佟梓睿</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>15265619909</v>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>王文洁</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>19860203016</v>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>梁雯雯</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>13589892342</v>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>孙阳</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>13709216280</v>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>柳心怡</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>18330100618</v>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>柳卓雅</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>17772453247</v>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>郝学童</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>15736006193</v>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>赵远凤</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>17603220275</v>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>张博渊</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>19112622084</v>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>王栗</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>2468324004@qq.com</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>孙琪</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>13582187292</v>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>张晨晗</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>扇贝考研小红书合作</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>